--- a/Samuel-Kings-Chronicles-notes/Samuel.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Samuel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>国家</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,6 +190,58 @@
   </si>
   <si>
     <t>以色列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒母耳膏立；百姓拥立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 10:1；撒上 11:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 13:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚扪人攻打并凌辱以色列人；扫罗用切碎的牛激励以色列人、杀败亚扪人；约拿单带头杀败非利士人；扫罗打败四围的仇敌摩押、亚扪、以东、琐巴、非利士和亚玛力；战胜亚玛力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 11:1-2；撒上 11:5-11；撒上 14:6-23；撒上 14:47-48；撒上 15:4-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基比亚？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 15:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫罗让百姓起誓禁食，约拿单不知道而违背、被扫罗定死罪，又被百姓救下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶和华指示撒母耳膏立扫罗为君王，并且应许拯救百姓脱离非利士人的手；撒母耳膏立扫罗为君王；撒母耳对扫罗预言的兆头都应验了；撒母耳通过抽签向百姓宣告扫罗为王；撒母耳劝诫百姓敬畏侍奉耶和华；撒母耳预言打雷降雨并应验；扫罗不等撒母耳提前献燔祭、撒母耳责备他并预言王位不长久；撒母耳传耶和华的指示说要灭尽亚玛力人、扫罗不听从；撒母耳责备扫罗、并传耶和华的命令废去扫罗的王位；扫罗认罪但不被接纳；撒母耳杀死扫罗放过的亚玛力王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 14:24-45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 9:15-17；撒上 10:1；撒上 10:2-13；撒上 10:17-24；撒上 12:14-15,20-25；撒上 12:16-18；撒上 13:8-14；撒上 15:1-9；撒上 15:10-23；撒上 15:24-29；撒上 15:32-33</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,10 +603,10 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -603,6 +655,12 @@
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="D4" s="4" t="s">
         <v>37</v>
       </c>
@@ -614,10 +672,22 @@
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -677,96 +747,117 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
     </row>
-    <row r="27" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
     </row>
-    <row r="33" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Samuel-Kings-Chronicles-notes/Samuel.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Samuel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>国家</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,19 +229,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>扫罗让百姓起誓禁食，约拿单不知道而违背、被扫罗定死罪，又被百姓救下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>耶和华指示撒母耳膏立扫罗为君王，并且应许拯救百姓脱离非利士人的手；撒母耳膏立扫罗为君王；撒母耳对扫罗预言的兆头都应验了；撒母耳通过抽签向百姓宣告扫罗为王；撒母耳劝诫百姓敬畏侍奉耶和华；撒母耳预言打雷降雨并应验；扫罗不等撒母耳提前献燔祭、撒母耳责备他并预言王位不长久；撒母耳传耶和华的指示说要灭尽亚玛力人、扫罗不听从；撒母耳责备扫罗、并传耶和华的命令废去扫罗的王位；扫罗认罪但不被接纳；撒母耳杀死扫罗放过的亚玛力王</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>撒上 14:24-45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>撒上 9:15-17；撒上 10:1；撒上 10:2-13；撒上 10:17-24；撒上 12:14-15,20-25；撒上 12:16-18；撒上 13:8-14；撒上 15:1-9；撒上 15:10-23；撒上 15:24-29；撒上 15:32-33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大卫击杀非利士的歌利亚，使得以色列战胜非利士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 17:41-54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚希暖（亚希玛斯的女儿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 14:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫罗让百姓起誓禁食，约拿单不知道而违背、被扫罗定死罪，又被百姓救下；召大卫来弹琴以驱赶魔鬼，大卫也做了扫罗拿兵器的人；扫罗嫉妒并想要杀死大卫；扫罗逼迫大卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 14:24-45；撒上 16:14-23；撒上 18:6-11；撒上 19:1-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶和华启示撒母耳要膏立耶西的儿子；耶和华指示撒母耳膏立大卫；大卫逃避扫罗到撒母耳处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 16:1；撒上 16:11-13；撒上 19:18-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与约拿单结盟；大卫杀死二百非利士人，并以此娶了扫罗王的女儿米甲；约拿单帮助大卫逃避扫罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 18:3-4；撒上 18:20-29；撒上 20:1-42</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,10 +639,10 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -752,104 +788,125 @@
         <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
     </row>
-    <row r="27" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
     </row>
-    <row r="33" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
@@ -858,6 +915,12 @@
       </c>
       <c r="C35" s="4" t="s">
         <v>49</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Samuel-Kings-Chronicles-notes/Samuel.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Samuel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>国家</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,14 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>亚扪人攻打并凌辱以色列人；扫罗用切碎的牛激励以色列人、杀败亚扪人；约拿单带头杀败非利士人；扫罗打败四围的仇敌摩押、亚扪、以东、琐巴、非利士和亚玛力；战胜亚玛力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 11:1-2；撒上 11:5-11；撒上 14:6-23；撒上 14:47-48；撒上 15:4-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>基比亚？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,14 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大卫击杀非利士的歌利亚，使得以色列战胜非利士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 17:41-54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>亚希暖（亚希玛斯的女儿）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,19 +249,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>耶和华启示撒母耳要膏立耶西的儿子；耶和华指示撒母耳膏立大卫；大卫逃避扫罗到撒母耳处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 16:1；撒上 16:11-13；撒上 19:18-24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与约拿单结盟；大卫杀死二百非利士人，并以此娶了扫罗王的女儿米甲；约拿单帮助大卫逃避扫罗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 18:3-4；撒上 18:20-29；撒上 20:1-42</t>
+    <t>摩押王收容大卫的父母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 22:3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死祭司亚希米勒和他父的全家、灭尽祭司城挪伯中的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 22:11-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为拯救基伊拉祷告；为扫罗将围困基伊拉祷告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 23:2,4；撒上 23:10-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大卫击杀非利士的歌利亚，使得以色列战胜非利士；大卫杀败非利士人、拯救了基伊拉；扫罗要围困基伊拉、大卫逃离；西弗人出卖大卫，扫罗追杀大卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 17:41-54；撒上 23:1-5；撒上 23:6-13；撒上 23:19-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚扪人攻打并凌辱以色列人；扫罗用切碎的牛激励以色列人、杀败亚扪人；约拿单带头杀败非利士人；扫罗打败四围的仇敌摩押、亚扪、以东、琐巴、非利士和亚玛力；战胜亚玛力；非利士人犯境、扫罗攻打非利士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 11:1-2；撒上 11:5-11；撒上 14:6-23；撒上 14:47-48；撒上 15:4-9；撒上 23:27-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶和华启示撒母耳要膏立耶西的儿子；耶和华指示撒母耳膏立大卫；大卫逃避扫罗到撒母耳处；先知迦得让大卫离开山寨去犹大地；撒母耳去世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 16:1；撒上 16:11-13；撒上 19:18-24；撒上 22:5；撒上 25:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米甲（扫罗的二女儿）；亚希暖（耶斯列人）、亚比该（原拿八的妻）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 18:27；撒上 25:43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与约拿单结盟；大卫杀死二百非利士人，并以此娶了扫罗王的女儿米甲；约拿单帮助大卫逃避扫罗；大卫逃避扫罗到祭司亚希米勒处，吃了陈设饼、拿了刀；大卫逃避扫罗到迦特王处，装疯；大卫逃避扫罗到摩押；收容亚希米勒的儿子亚比亚他；大卫住西弗的旷野；与约拿单立约；大卫饶扫罗的命；拿八羞辱大卫、被耶和华击杀，大卫娶了拿八的妻亚比该</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 18:3-4；撒上 18:20-29；撒上 20:1-42；撒上 21:1-9；撒上 21:10-15；撒上 22:3；撒上 22:20-23；撒上 23:14；撒上 23:16-18；撒上 24:1-7；撒上 25:2-43</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,10 +671,10 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -692,10 +724,10 @@
         <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>37</v>
@@ -778,9 +810,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="4" customFormat="1" ht="193.2" x14ac:dyDescent="0.25">
@@ -788,16 +826,16 @@
         <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -808,40 +846,52 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -857,7 +907,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -905,22 +955,28 @@
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="D34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="4" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Samuel-Kings-Chronicles-notes/Samuel.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Samuel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>国家</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,14 +221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>耶和华指示撒母耳膏立扫罗为君王，并且应许拯救百姓脱离非利士人的手；撒母耳膏立扫罗为君王；撒母耳对扫罗预言的兆头都应验了；撒母耳通过抽签向百姓宣告扫罗为王；撒母耳劝诫百姓敬畏侍奉耶和华；撒母耳预言打雷降雨并应验；扫罗不等撒母耳提前献燔祭、撒母耳责备他并预言王位不长久；撒母耳传耶和华的指示说要灭尽亚玛力人、扫罗不听从；撒母耳责备扫罗、并传耶和华的命令废去扫罗的王位；扫罗认罪但不被接纳；撒母耳杀死扫罗放过的亚玛力王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 9:15-17；撒上 10:1；撒上 10:2-13；撒上 10:17-24；撒上 12:14-15,20-25；撒上 12:16-18；撒上 13:8-14；撒上 15:1-9；撒上 15:10-23；撒上 15:24-29；撒上 15:32-33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>耶西</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,46 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>摩押王收容大卫的父母</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 22:3-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杀死祭司亚希米勒和他父的全家、灭尽祭司城挪伯中的人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 22:11-19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为拯救基伊拉祷告；为扫罗将围困基伊拉祷告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 23:2,4；撒上 23:10-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大卫击杀非利士的歌利亚，使得以色列战胜非利士；大卫杀败非利士人、拯救了基伊拉；扫罗要围困基伊拉、大卫逃离；西弗人出卖大卫，扫罗追杀大卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 17:41-54；撒上 23:1-5；撒上 23:6-13；撒上 23:19-29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚扪人攻打并凌辱以色列人；扫罗用切碎的牛激励以色列人、杀败亚扪人；约拿单带头杀败非利士人；扫罗打败四围的仇敌摩押、亚扪、以东、琐巴、非利士和亚玛力；战胜亚玛力；非利士人犯境、扫罗攻打非利士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 11:1-2；撒上 11:5-11；撒上 14:6-23；撒上 14:47-48；撒上 15:4-9；撒上 23:27-28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>耶和华启示撒母耳要膏立耶西的儿子；耶和华指示撒母耳膏立大卫；大卫逃避扫罗到撒母耳处；先知迦得让大卫离开山寨去犹大地；撒母耳去世</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,11 +257,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与约拿单结盟；大卫杀死二百非利士人，并以此娶了扫罗王的女儿米甲；约拿单帮助大卫逃避扫罗；大卫逃避扫罗到祭司亚希米勒处，吃了陈设饼、拿了刀；大卫逃避扫罗到迦特王处，装疯；大卫逃避扫罗到摩押；收容亚希米勒的儿子亚比亚他；大卫住西弗的旷野；与约拿单立约；大卫饶扫罗的命；拿八羞辱大卫、被耶和华击杀，大卫娶了拿八的妻亚比该</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 18:3-4；撒上 18:20-29；撒上 20:1-42；撒上 21:1-9；撒上 21:10-15；撒上 22:3；撒上 22:20-23；撒上 23:14；撒上 23:16-18；撒上 24:1-7；撒上 25:2-43</t>
+    <t>摩押王收容大卫的父母；非利士的迦特王亚吉收容大卫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 22:3-4；撒上 27:2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚扪人攻打并凌辱以色列人；扫罗用切碎的牛激励以色列人、杀败亚扪人；约拿单带头杀败非利士人；扫罗打败四围的仇敌摩押、亚扪、以东、琐巴、非利士和亚玛力；战胜亚玛力；非利士人犯境、扫罗攻打非利士；非利士攻打以色列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 11:1-2；撒上 11:5-11；撒上 14:6-23；撒上 14:47-48；撒上 15:4-9；撒上 23:27-28；撒上 28:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 28:5-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫罗为非利士的攻打求问耶和华，耶和华不回答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死祭司亚希米勒和他父的全家、灭尽祭司城挪伯中的人；曾不容有交鬼的和行巫术的人；扫罗寻求交鬼的妇人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 22:11-19；撒上 28:3；撒上 28:7-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶和华指示撒母耳膏立扫罗为君王，并且应许拯救百姓脱离非利士人的手；撒母耳膏立扫罗为君王；撒母耳对扫罗预言的兆头都应验了；撒母耳通过抽签向百姓宣告扫罗为王；撒母耳劝诫百姓敬畏侍奉耶和华；撒母耳预言打雷降雨并应验；扫罗不等撒母耳提前献燔祭、撒母耳责备他并预言王位不长久；撒母耳传耶和华的指示说要灭尽亚玛力人、扫罗不听从；撒母耳责备扫罗、并传耶和华的命令废去扫罗的王位；扫罗认罪但不被接纳；撒母耳杀死扫罗放过的亚玛力王；扫罗通过交鬼的妇人招撒母耳的灵魂，撒母耳预言以色列败给非利士、扫罗的灭门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 9:15-17；撒上 10:1；撒上 10:2-13；撒上 10:17-24；撒上 12:14-15,20-25；撒上 12:16-18；撒上 13:8-14；撒上 15:1-9；撒上 15:10-23；撒上 15:24-29；撒上 15:32-33；撒上 28:8-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与约拿单结盟；大卫杀死二百非利士人，并以此娶了扫罗王的女儿米甲；约拿单帮助大卫逃避扫罗；大卫逃避扫罗到祭司亚希米勒处，吃了陈设饼、拿了刀；大卫逃避扫罗到迦特王处，装疯；大卫逃避扫罗到摩押；收容亚希米勒的儿子亚比亚他；大卫住西弗的旷野；与约拿单立约；大卫饶扫罗的命；拿八羞辱大卫、被耶和华击杀，大卫娶了拿八的妻亚比该；大卫再次饶扫罗的命；大卫逃避扫罗到非利士地的洗革拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 18:3-4；撒上 18:20-29；撒上 20:1-42；撒上 21:1-9；撒上 21:10-15；撒上 22:3；撒上 22:20-23；撒上 23:14；撒上 23:16-18；撒上 24:1-7；撒上 25:2-43；撒上 26:9-12；撒上 27:1-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为拯救基伊拉祷告；为扫罗将围困基伊拉祷告；求问耶和华能否追赶亚玛力人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 23:2,4；撒上 23:10-12；撒上 30:7-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大卫击杀非利士的歌利亚，使得以色列战胜非利士；大卫杀败非利士人、拯救了基伊拉；扫罗要围困基伊拉、大卫逃离；西弗人出卖大卫，扫罗追杀大卫；大卫住非利士地时侵夺基述、基色、亚玛力；迦特王亚吉希望大卫与非利士一起攻打以色列；非利士人防备大卫、不许他一同出战；亚玛力人攻破洗革拉并掳走百姓；大卫追赶亚玛力人并得胜、夺回被掳去的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 17:41-54；撒上 23:1-5；撒上 23:6-13；撒上 23:19-29；撒上 27:8-9；撒上 28:1-2；撒上 29:3-5；撒上 30:1-3；撒上 30:9-20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -671,10 +679,10 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -810,32 +818,38 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="D15" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="193.2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="234.6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -846,32 +860,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -882,16 +896,16 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -907,7 +921,7 @@
         <v>43</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -951,32 +965,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" ht="96.6" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Samuel-Kings-Chronicles-notes/Samuel.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Samuel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>国家</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,14 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王上 2:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与列祖同睡在大卫城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上位形式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,22 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>希伯伦（7年）、耶路撒冷（33年）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王上 2:11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王上 2:11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>以色列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,14 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>亚扪人攻打并凌辱以色列人；扫罗用切碎的牛激励以色列人、杀败亚扪人；约拿单带头杀败非利士人；扫罗打败四围的仇敌摩押、亚扪、以东、琐巴、非利士和亚玛力；战胜亚玛力；非利士人犯境、扫罗攻打非利士；非利士攻打以色列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 11:1-2；撒上 11:5-11；撒上 14:6-23；撒上 14:47-48；撒上 15:4-9；撒上 23:27-28；撒上 28:4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>撒上 28:5-6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,14 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与约拿单结盟；大卫杀死二百非利士人，并以此娶了扫罗王的女儿米甲；约拿单帮助大卫逃避扫罗；大卫逃避扫罗到祭司亚希米勒处，吃了陈设饼、拿了刀；大卫逃避扫罗到迦特王处，装疯；大卫逃避扫罗到摩押；收容亚希米勒的儿子亚比亚他；大卫住西弗的旷野；与约拿单立约；大卫饶扫罗的命；拿八羞辱大卫、被耶和华击杀，大卫娶了拿八的妻亚比该；大卫再次饶扫罗的命；大卫逃避扫罗到非利士地的洗革拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 18:3-4；撒上 18:20-29；撒上 20:1-42；撒上 21:1-9；撒上 21:10-15；撒上 22:3；撒上 22:20-23；撒上 23:14；撒上 23:16-18；撒上 24:1-7；撒上 25:2-43；撒上 26:9-12；撒上 27:1-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>为拯救基伊拉祷告；为扫罗将围困基伊拉祷告；求问耶和华能否追赶亚玛力人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -318,6 +278,82 @@
   </si>
   <si>
     <t>撒上 17:41-54；撒上 23:1-5；撒上 23:6-13；撒上 23:19-29；撒上 27:8-9；撒上 28:1-2；撒上 29:3-5；撒上 30:1-3；撒上 30:9-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚扪人攻打并凌辱以色列人；扫罗用切碎的牛激励以色列人、杀败亚扪人；约拿单带头杀败非利士人；扫罗打败四围的仇敌摩押、亚扪、以东、琐巴、非利士和亚玛力；战胜亚玛力；非利士人犯境、扫罗攻打非利士；非利士攻打以色列；以色列与非利士争战战败、扫罗及其儿子均战死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 11:1-2；撒上 11:5-11；撒上 14:6-23；撒上 14:47-48；撒上 15:4-9；撒上 23:27-28；撒上 28:4；撒上 31:1-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与非利士争战被杀；尸身被救回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 31:3-4；撒上 31:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与约拿单结盟；大卫杀死二百非利士人，并以此娶了扫罗王的女儿米甲；约拿单帮助大卫逃避扫罗；大卫逃避扫罗到祭司亚希米勒处，吃了陈设饼、拿了刀；大卫逃避扫罗到迦特王处，装疯；大卫逃避扫罗到摩押；收容亚希米勒的儿子亚比亚他；大卫住西弗的旷野；与约拿单立约；大卫饶扫罗的命；拿八羞辱大卫、被耶和华击杀，大卫娶了拿八的妻亚比该；大卫再次饶扫罗的命；大卫逃避扫罗到非利士地的洗革拉；大卫杀死亲手杀死扫罗的少年人；大卫为扫罗和约拿单作哀歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 18:3-4；撒上 18:20-29；撒上 20:1-42；撒上 21:1-9；撒上 21:10-15；撒上 22:3；撒上 22:20-23；撒上 23:14；撒上 23:16-18；撒上 24:1-7；撒上 25:2-43；撒上 26:9-12；撒上 27:1-7；撒下 1:13-16；撒下 1:17-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 16:11-13；撒下 2:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒母耳膏立；犹大人膏立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊施波设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ish-bosheth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被押尼珥所立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒下 2:8-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒下 2:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希伯仑（7年6月）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒下 2:1-4,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫罗家与大卫家争战，扫罗家的押尼珥杀死大卫家约押的弟弟亚撒黑，大卫家得胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒下 2:12-32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,25 +712,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="40.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="40.77734375" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -704,8 +742,11 @@
       <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -715,141 +756,162 @@
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="234.6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="179.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -860,26 +922,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="179.4" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>69</v>
@@ -891,21 +953,21 @@
     <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -918,10 +980,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -960,37 +1022,43 @@
     <row r="32" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
     </row>
-    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Samuel-Kings-Chronicles-notes/Samuel.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Samuel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>国家</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,22 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>米甲（扫罗的二女儿）；亚希暖（耶斯列人）、亚比该（原拿八的妻）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 18:27；撒上 25:43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摩押王收容大卫的父母；非利士的迦特王亚吉收容大卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 22:3-4；撒上 27:2-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>撒上 28:5-6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,22 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>为拯救基伊拉祷告；为扫罗将围困基伊拉祷告；求问耶和华能否追赶亚玛力人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 23:2,4；撒上 23:10-12；撒上 30:7-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大卫击杀非利士的歌利亚，使得以色列战胜非利士；大卫杀败非利士人、拯救了基伊拉；扫罗要围困基伊拉、大卫逃离；西弗人出卖大卫，扫罗追杀大卫；大卫住非利士地时侵夺基述、基色、亚玛力；迦特王亚吉希望大卫与非利士一起攻打以色列；非利士人防备大卫、不许他一同出战；亚玛力人攻破洗革拉并掳走百姓；大卫追赶亚玛力人并得胜、夺回被掳去的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 17:41-54；撒上 23:1-5；撒上 23:6-13；撒上 23:19-29；撒上 27:8-9；撒上 28:1-2；撒上 29:3-5；撒上 30:1-3；撒上 30:9-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>亚扪人攻打并凌辱以色列人；扫罗用切碎的牛激励以色列人、杀败亚扪人；约拿单带头杀败非利士人；扫罗打败四围的仇敌摩押、亚扪、以东、琐巴、非利士和亚玛力；战胜亚玛力；非利士人犯境、扫罗攻打非利士；非利士攻打以色列；以色列与非利士争战战败、扫罗及其儿子均战死</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,22 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与约拿单结盟；大卫杀死二百非利士人，并以此娶了扫罗王的女儿米甲；约拿单帮助大卫逃避扫罗；大卫逃避扫罗到祭司亚希米勒处，吃了陈设饼、拿了刀；大卫逃避扫罗到迦特王处，装疯；大卫逃避扫罗到摩押；收容亚希米勒的儿子亚比亚他；大卫住西弗的旷野；与约拿单立约；大卫饶扫罗的命；拿八羞辱大卫、被耶和华击杀，大卫娶了拿八的妻亚比该；大卫再次饶扫罗的命；大卫逃避扫罗到非利士地的洗革拉；大卫杀死亲手杀死扫罗的少年人；大卫为扫罗和约拿单作哀歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 18:3-4；撒上 18:20-29；撒上 20:1-42；撒上 21:1-9；撒上 21:10-15；撒上 22:3；撒上 22:20-23；撒上 23:14；撒上 23:16-18；撒上 24:1-7；撒上 25:2-43；撒上 26:9-12；撒上 27:1-7；撒下 1:13-16；撒下 1:17-27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 16:11-13；撒下 2:4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒母耳膏立；犹大人膏立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>伊施波设</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,10 +277,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被押尼珥所立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>撒下 2:8-9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,10 +289,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>希伯仑（7年6月）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>撒下 2:1-4,11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,6 +298,106 @@
   </si>
   <si>
     <t>撒下 2:12-32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承（被押尼珥所立）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米甲（扫罗的二女儿）；亚希暖（耶斯列人）、亚比该（原拿八的妻）；玛迦（基述王达买的女儿）、哈及、亚比他、以格拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 18:27；撒上 25:43；撒下 3:2-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒下 3:6-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊施波设因扫罗的妃嫔利斯巴责备押尼珥，押尼珥发怒投效大卫，大卫要求归还米甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊施波设睡午觉时被其军长巴拿和利甲杀死；被大卫埋葬在希伯仑押尼珥的坟墓中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒下 4:2,5-7；撒下 4:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与约拿单结盟；大卫杀死二百非利士人，并以此娶了扫罗王的女儿米甲；约拿单帮助大卫逃避扫罗；大卫逃避扫罗到祭司亚希米勒处，吃了陈设饼、拿了刀；大卫逃避扫罗到迦特王处，装疯；大卫逃避扫罗到摩押；收容亚希米勒的儿子亚比亚他；大卫住西弗的旷野；与约拿单立约；大卫饶扫罗的命；拿八羞辱大卫、被耶和华击杀，大卫娶了拿八的妻亚比该；大卫再次饶扫罗的命；大卫逃避扫罗到非利士地的洗革拉；大卫杀死亲手杀死扫罗的少年人；大卫为扫罗和约拿单作哀歌；约押为报亚撒黑的仇而杀死押尼珥，大卫为此咒诅约押家；大卫安葬押尼珥并举哀；大卫杀死背叛、杀死伊施波设的巴拿和利甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 18:3-4；撒上 18:20-29；撒上 20:1-42；撒上 21:1-9；撒上 21:10-15；撒上 22:3；撒上 22:20-23；撒上 23:14；撒上 23:16-18；撒上 24:1-7；撒上 25:2-43；撒上 26:9-12；撒上 27:1-7；撒下 1:13-16；撒下 1:17-27；撒下 3:22-30；撒下 3:31-39；撒下 4:8-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒母耳膏立；犹大人膏立；以色列人膏立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 16:11-13；撒下 2:4；撒下 5:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒下 5:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒下 5:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希伯仑（7年6月）；耶路撒冷（33年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大（7年6月）、以色列（33年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒下 5:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩押王收容大卫的父母；非利士的迦特王亚吉收容大卫；推罗王赠送香柏木、帮助大卫建造宫殿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 22:3-4；撒上 27:2-3；撒下 5:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 23:2,4；撒上 23:10-12；撒上 30:7-8；撒下 5:19,23-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为拯救基伊拉祷告；为扫罗将围困基伊拉祷告；求问耶和华能否追赶亚玛力人；两次求问耶和华可否攻打非利士人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 17:41-54；撒上 23:1-5；撒上 23:6-13；撒上 23:19-29；撒上 27:8-9；撒上 28:1-2；撒上 29:3-5；撒上 30:1-3；撒上 30:9-20；撒下 5:6-10；撒下 5:17-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大卫击杀非利士的歌利亚，使得以色列战胜非利士；大卫杀败非利士人、拯救了基伊拉；扫罗要围困基伊拉、大卫逃离；西弗人出卖大卫，扫罗追杀大卫；大卫住非利士地时侵夺基述、基色、亚玛力；迦特王亚吉希望大卫与非利士一起攻打以色列；非利士人防备大卫、不许他一同出战；亚玛力人攻破洗革拉并掳走百姓；大卫追赶亚玛力人并得胜、夺回被掳去的；攻打耶路撒冷的耶布斯人，攻取锡安的保障（大卫城）；非利士人两次来攻打以色列，以色列击败非利士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,10 +759,10 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -743,7 +787,7 @@
         <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -757,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -768,7 +812,10 @@
         <v>36</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>35</v>
+        <v>87</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>35</v>
@@ -785,10 +832,10 @@
         <v>43</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -801,11 +848,17 @@
       <c r="C5" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="D5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="F5" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
@@ -819,24 +872,30 @@
         <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="F7" s="4" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -854,15 +913,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -880,21 +945,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="179.4" x14ac:dyDescent="0.25">
@@ -902,10 +967,10 @@
         <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>49</v>
@@ -914,26 +979,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -944,16 +1009,22 @@
         <v>48</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
@@ -964,18 +1035,18 @@
         <v>46</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -985,41 +1056,44 @@
       <c r="D24" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
     </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
     </row>
     <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1027,38 +1101,38 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Samuel-Kings-Chronicles-notes/Samuel.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Samuel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>国家</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,14 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>耶和华启示撒母耳要膏立耶西的儿子；耶和华指示撒母耳膏立大卫；大卫逃避扫罗到撒母耳处；先知迦得让大卫离开山寨去犹大地；撒母耳去世</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 16:1；撒上 16:11-13；撒上 19:18-24；撒上 22:5；撒上 25:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>撒上 28:5-6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,14 +325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与约拿单结盟；大卫杀死二百非利士人，并以此娶了扫罗王的女儿米甲；约拿单帮助大卫逃避扫罗；大卫逃避扫罗到祭司亚希米勒处，吃了陈设饼、拿了刀；大卫逃避扫罗到迦特王处，装疯；大卫逃避扫罗到摩押；收容亚希米勒的儿子亚比亚他；大卫住西弗的旷野；与约拿单立约；大卫饶扫罗的命；拿八羞辱大卫、被耶和华击杀，大卫娶了拿八的妻亚比该；大卫再次饶扫罗的命；大卫逃避扫罗到非利士地的洗革拉；大卫杀死亲手杀死扫罗的少年人；大卫为扫罗和约拿单作哀歌；约押为报亚撒黑的仇而杀死押尼珥，大卫为此咒诅约押家；大卫安葬押尼珥并举哀；大卫杀死背叛、杀死伊施波设的巴拿和利甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 18:3-4；撒上 18:20-29；撒上 20:1-42；撒上 21:1-9；撒上 21:10-15；撒上 22:3；撒上 22:20-23；撒上 23:14；撒上 23:16-18；撒上 24:1-7；撒上 25:2-43；撒上 26:9-12；撒上 27:1-7；撒下 1:13-16；撒下 1:17-27；撒下 3:22-30；撒下 3:31-39；撒下 4:8-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>撒母耳膏立；犹大人膏立；以色列人膏立</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,27 +361,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>摩押王收容大卫的父母；非利士的迦特王亚吉收容大卫；推罗王赠送香柏木、帮助大卫建造宫殿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 22:3-4；撒上 27:2-3；撒下 5:11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 23:2,4；撒上 23:10-12；撒上 30:7-8；撒下 5:19,23-24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为拯救基伊拉祷告；为扫罗将围困基伊拉祷告；求问耶和华能否追赶亚玛力人；两次求问耶和华可否攻打非利士人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 17:41-54；撒上 23:1-5；撒上 23:6-13；撒上 23:19-29；撒上 27:8-9；撒上 28:1-2；撒上 29:3-5；撒上 30:1-3；撒上 30:9-20；撒下 5:6-10；撒下 5:17-25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大卫击杀非利士的歌利亚，使得以色列战胜非利士；大卫杀败非利士人、拯救了基伊拉；扫罗要围困基伊拉、大卫逃离；西弗人出卖大卫，扫罗追杀大卫；大卫住非利士地时侵夺基述、基色、亚玛力；迦特王亚吉希望大卫与非利士一起攻打以色列；非利士人防备大卫、不许他一同出战；亚玛力人攻破洗革拉并掳走百姓；大卫追赶亚玛力人并得胜、夺回被掳去的；攻打耶路撒冷的耶布斯人，攻取锡安的保障（大卫城）；非利士人两次来攻打以色列，以色列击败非利士</t>
+    <t>大卫计划将约柜从巴拉犹大运来大卫城；乌撒因用手扶约柜被耶和华击杀，大卫惧怕而将约柜运到迦特人俄别以东的家中；大卫将约柜运回大卫城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒下 6:1-5；撒下 6:6-11；撒下 6:12-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为运回约柜而献祭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒下 6:13,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为运回约柜献祭后，大卫给百姓祝福并分食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒下 6:18-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶和华启示撒母耳要膏立耶西的儿子；耶和华指示撒母耳膏立大卫；大卫逃避扫罗到撒母耳处；先知迦得让大卫离开山寨去犹大地；撒母耳去世；先知拿单传耶和华的应许，大卫不能建造圣殿、大卫的后裔将建造圣殿并坚定国位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 16:1；撒上 16:11-13；撒上 19:18-24；撒上 22:5；撒上 25:1；撒下 7:2-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为拯救基伊拉祷告；为扫罗将围困基伊拉祷告；求问耶和华能否追赶亚玛力人；两次求问耶和华可否攻打非利士人；大卫因耶和华的应许而感恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 23:2,4；撒上 23:10-12；撒上 30:7-8；撒下 5:19,23-24；撒下 7:18-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 18:3-4；撒上 18:20-29；撒上 20:1-42；撒上 21:1-9；撒上 21:10-15；撒上 22:3；撒上 22:20-23；撒上 23:14；撒上 23:16-18；撒上 24:1-7；撒上 25:2-43；撒上 26:9-12；撒上 27:1-7；撒下 1:13-16；撒下 1:17-27；撒下 3:22-30；撒下 3:31-39；撒下 4:8-12；撒下 6:16,20-23；撒下 9:1-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与约拿单结盟；大卫杀死二百非利士人，并以此娶了扫罗王的女儿米甲；约拿单帮助大卫逃避扫罗；大卫逃避扫罗到祭司亚希米勒处，吃了陈设饼、拿了刀；大卫逃避扫罗到迦特王处，装疯；大卫逃避扫罗到摩押；收容亚希米勒的儿子亚比亚他；大卫住西弗的旷野；与约拿单立约；大卫饶扫罗的命；拿八羞辱大卫、被耶和华击杀，大卫娶了拿八的妻亚比该；大卫再次饶扫罗的命；大卫逃避扫罗到非利士地的洗革拉；大卫杀死亲手杀死扫罗的少年人；大卫为扫罗和约拿单作哀歌；约押为报亚撒黑的仇而杀死押尼珥，大卫为此咒诅约押家；大卫安葬押尼珥并举哀；大卫杀死背叛、杀死伊施波设的巴拿和利甲；米甲轻视、嘲笑大卫为约柜而跳舞；大卫因约拿单的缘故恩待其儿子米非波设，让他同席吃饭、使洗巴服侍他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩押王收容大卫的父母；非利士的迦特王亚吉收容大卫；推罗王赠送香柏木、帮助大卫建造宫殿；摩押人归服并进贡；亚兰人归服并进贡；哈马王陀以问安祝福并献礼物；以东人归服；亚扪王拿辖曾恩待大卫，拿辖死后，大卫派人安慰其儿子哈嫩，但哈嫩羞辱使者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 22:3-4；撒上 27:2-3；撒下 5:11；撒下 8:2；撒下 8:6；撒下 8:9-10；撒下 8:14；撒下 10:1-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大卫击杀非利士的歌利亚，使得以色列战胜非利士；大卫杀败非利士人、拯救了基伊拉；扫罗要围困基伊拉、大卫逃离；西弗人出卖大卫，扫罗追杀大卫；大卫住非利士地时侵夺基述、基色、亚玛力；迦特王亚吉希望大卫与非利士一起攻打以色列；非利士人防备大卫、不许他一同出战；亚玛力人攻破洗革拉并掳走百姓；大卫追赶亚玛力人并得胜、夺回被掳去的；攻打耶路撒冷的耶布斯人，攻取锡安的保障（大卫城）；非利士人两次来攻打以色列，以色列击败非利士；治服非利士人；攻打摩押人；击败琐巴王；击败帮助琐巴的亚兰人；击败亚兰（以东）人；击败亚扪、亚兰、玛迦和陀伯的联军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 17:41-54；撒上 23:1-5；撒上 23:6-13；撒上 23:19-29；撒上 27:8-9；撒上 28:1-2；撒上 29:3-5；撒上 30:1-3；撒上 30:9-20；撒下 5:6-10；撒下 5:17-25；撒下 8:1；撒下 8:2；撒下 8:3-4,7-8；撒下 8:5-6；撒下 8:13-14；撒下 10:6-19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,10 +783,10 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -787,7 +811,7 @@
         <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -801,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -812,10 +836,10 @@
         <v>36</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>35</v>
@@ -832,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -849,16 +873,16 @@
         <v>41</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
@@ -872,16 +896,16 @@
         <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -889,13 +913,13 @@
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -918,16 +942,16 @@
         <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -945,21 +969,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="179.4" x14ac:dyDescent="0.25">
@@ -967,16 +991,16 @@
         <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -992,13 +1016,13 @@
         <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="193.2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="220.8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -1009,16 +1033,16 @@
         <v>48</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1035,10 +1059,10 @@
         <v>46</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1057,7 +1081,7 @@
         <v>44</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1068,9 +1092,15 @@
     <row r="26" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1092,6 +1122,12 @@
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
@@ -1100,39 +1136,45 @@
       <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="D33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="151.80000000000001" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="193.2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Samuel-Kings-Chronicles-notes/Samuel.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Samuel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>国家</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,14 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>米甲（扫罗的二女儿）；亚希暖（耶斯列人）、亚比该（原拿八的妻）；玛迦（基述王达买的女儿）、哈及、亚比他、以格拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 18:27；撒上 25:43；撒下 3:2-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>撒下 3:6-21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,14 +353,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大卫计划将约柜从巴拉犹大运来大卫城；乌撒因用手扶约柜被耶和华击杀，大卫惧怕而将约柜运到迦特人俄别以东的家中；大卫将约柜运回大卫城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒下 6:1-5；撒下 6:6-11；撒下 6:12-17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>为运回约柜而献祭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,14 +369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>耶和华启示撒母耳要膏立耶西的儿子；耶和华指示撒母耳膏立大卫；大卫逃避扫罗到撒母耳处；先知迦得让大卫离开山寨去犹大地；撒母耳去世；先知拿单传耶和华的应许，大卫不能建造圣殿、大卫的后裔将建造圣殿并坚定国位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 16:1；撒上 16:11-13；撒上 19:18-24；撒上 22:5；撒上 25:1；撒下 7:2-17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>为拯救基伊拉祷告；为扫罗将围困基伊拉祷告；求问耶和华能否追赶亚玛力人；两次求问耶和华可否攻打非利士人；大卫因耶和华的应许而感恩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,14 +377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>撒上 18:3-4；撒上 18:20-29；撒上 20:1-42；撒上 21:1-9；撒上 21:10-15；撒上 22:3；撒上 22:20-23；撒上 23:14；撒上 23:16-18；撒上 24:1-7；撒上 25:2-43；撒上 26:9-12；撒上 27:1-7；撒下 1:13-16；撒下 1:17-27；撒下 3:22-30；撒下 3:31-39；撒下 4:8-12；撒下 6:16,20-23；撒下 9:1-13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与约拿单结盟；大卫杀死二百非利士人，并以此娶了扫罗王的女儿米甲；约拿单帮助大卫逃避扫罗；大卫逃避扫罗到祭司亚希米勒处，吃了陈设饼、拿了刀；大卫逃避扫罗到迦特王处，装疯；大卫逃避扫罗到摩押；收容亚希米勒的儿子亚比亚他；大卫住西弗的旷野；与约拿单立约；大卫饶扫罗的命；拿八羞辱大卫、被耶和华击杀，大卫娶了拿八的妻亚比该；大卫再次饶扫罗的命；大卫逃避扫罗到非利士地的洗革拉；大卫杀死亲手杀死扫罗的少年人；大卫为扫罗和约拿单作哀歌；约押为报亚撒黑的仇而杀死押尼珥，大卫为此咒诅约押家；大卫安葬押尼珥并举哀；大卫杀死背叛、杀死伊施波设的巴拿和利甲；米甲轻视、嘲笑大卫为约柜而跳舞；大卫因约拿单的缘故恩待其儿子米非波设，让他同席吃饭、使洗巴服侍他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>摩押王收容大卫的父母；非利士的迦特王亚吉收容大卫；推罗王赠送香柏木、帮助大卫建造宫殿；摩押人归服并进贡；亚兰人归服并进贡；哈马王陀以问安祝福并献礼物；以东人归服；亚扪王拿辖曾恩待大卫，拿辖死后，大卫派人安慰其儿子哈嫩，但哈嫩羞辱使者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,11 +385,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大卫击杀非利士的歌利亚，使得以色列战胜非利士；大卫杀败非利士人、拯救了基伊拉；扫罗要围困基伊拉、大卫逃离；西弗人出卖大卫，扫罗追杀大卫；大卫住非利士地时侵夺基述、基色、亚玛力；迦特王亚吉希望大卫与非利士一起攻打以色列；非利士人防备大卫、不许他一同出战；亚玛力人攻破洗革拉并掳走百姓；大卫追赶亚玛力人并得胜、夺回被掳去的；攻打耶路撒冷的耶布斯人，攻取锡安的保障（大卫城）；非利士人两次来攻打以色列，以色列击败非利士；治服非利士人；攻打摩押人；击败琐巴王；击败帮助琐巴的亚兰人；击败亚兰（以东）人；击败亚扪、亚兰、玛迦和陀伯的联军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 17:41-54；撒上 23:1-5；撒上 23:6-13；撒上 23:19-29；撒上 27:8-9；撒上 28:1-2；撒上 29:3-5；撒上 30:1-3；撒上 30:9-20；撒下 5:6-10；撒下 5:17-25；撒下 8:1；撒下 8:2；撒下 8:3-4,7-8；撒下 8:5-6；撒下 8:13-14；撒下 10:6-19</t>
+    <t>米甲（扫罗的二女儿）；亚希暖（耶斯列人）、亚比该（原拿八的妻）；玛迦（基述王达买的女儿）、哈及、亚比他、以格拉；拔示巴（原乌利亚的妻）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 18:27；撒上 25:43；撒下 3:2-5；撒下 11:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶和华启示撒母耳要膏立耶西的儿子；耶和华指示撒母耳膏立大卫；大卫逃避扫罗到撒母耳处；先知迦得让大卫离开山寨去犹大地；撒母耳去世；先知拿单传耶和华的应许，大卫不能建造圣殿、大卫的后裔将建造圣殿并坚定国位；先知拿单责备大卫犯奸淫、害死乌利亚，并传耶和华将降灾祸；先知拿单给所罗门赐名叫耶底底亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 16:1；撒上 16:11-13；撒上 19:18-24；撒上 22:5；撒上 25:1；撒下 7:2-17；撒下 12:1-15；撒下 12:24-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大卫击杀非利士的歌利亚，使得以色列战胜非利士；大卫杀败非利士人、拯救了基伊拉；扫罗要围困基伊拉、大卫逃离；西弗人出卖大卫，扫罗追杀大卫；大卫住非利士地时侵夺基述、基色、亚玛力；迦特王亚吉希望大卫与非利士一起攻打以色列；非利士人防备大卫、不许他一同出战；亚玛力人攻破洗革拉并掳走百姓；大卫追赶亚玛力人并得胜、夺回被掳去的；攻打耶路撒冷的耶布斯人，攻取锡安的保障（大卫城）；非利士人两次来攻打以色列，以色列击败非利士；治服非利士人；攻打摩押人；击败琐巴王；击败帮助琐巴的亚兰人；击败亚兰（以东）人；击败亚扪、亚兰、玛迦和陀伯的联军；打败亚扪人、围攻拉巴；攻取拉巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 17:41-54；撒上 23:1-5；撒上 23:6-13；撒上 23:19-29；撒上 27:8-9；撒上 28:1-2；撒上 29:3-5；撒上 30:1-3；撒上 30:9-20；撒下 5:6-10；撒下 5:17-25；撒下 8:1；撒下 8:2；撒下 8:3-4,7-8；撒下 8:5-6；撒下 8:13-14；撒下 10:6-19；撒下 11:1；撒下 12:26-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 18:3-4；撒上 18:20-29；撒上 20:1-42；撒上 21:1-9；撒上 21:10-15；撒上 22:3；撒上 22:20-23；撒上 23:14；撒上 23:16-18；撒上 24:1-7；撒上 25:2-43；撒上 26:9-12；撒上 27:1-7；撒下 1:13-16；撒下 1:17-27；撒下 3:22-30；撒下 3:31-39；撒下 4:8-12；撒下 6:16,20-23；撒下 9:1-13；撒下 12:15-23；撒下 13:37-38；撒下 14:1-24,28；撒下 14:28-33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与约拿单结盟；大卫杀死二百非利士人，并以此娶了扫罗王的女儿米甲；约拿单帮助大卫逃避扫罗；大卫逃避扫罗到祭司亚希米勒处，吃了陈设饼、拿了刀；大卫逃避扫罗到迦特王处，装疯；大卫逃避扫罗到摩押；收容亚希米勒的儿子亚比亚他；大卫住西弗的旷野；与约拿单立约；大卫饶扫罗的命；拿八羞辱大卫、被耶和华击杀，大卫娶了拿八的妻亚比该；大卫再次饶扫罗的命；大卫逃避扫罗到非利士地的洗革拉；大卫杀死亲手杀死扫罗的少年人；大卫为扫罗和约拿单作哀歌；约押为报亚撒黑的仇而杀死押尼珥，大卫为此咒诅约押家；大卫安葬押尼珥并举哀；大卫杀死背叛、杀死伊施波设的巴拿和利甲；米甲轻视、嘲笑大卫为约柜而跳舞；大卫因约拿单的缘故恩待其儿子米非波设，让他同席吃饭、使洗巴服侍他；拔示巴所生的孩子被耶和华击打、得重病死亡；押沙龙逃往基述三年；约押设法使押沙龙回来，但大卫不与他见面两年；押沙龙逼约押使他见大卫，大卫饶恕押沙龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大卫与乌利亚的妻拔示巴犯奸淫；大卫想隐藏奸淫之事、但没有成功；大卫派约押害死乌利亚；大卫娶拔示巴为妻；暗嫩玷污了押沙龙的妹子他玛，然后恨恶并赶走他玛；押沙龙杀死暗嫩后逃跑；押沙龙笼络民心并造反；大卫逃离耶路撒冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒下 11:2-5；撒下 11:6-13；撒下 11:14-17；撒下 11:27；撒下 13:1-19；撒下 13:28-29,34；撒下 15:1-12；撒下 15:13-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒下 6:1-5；撒下 6:6-11；撒下 6:12-17；撒下 15:24-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大卫计划将约柜从巴拉犹大运来大卫城；乌撒因用手扶约柜被耶和华击杀，大卫惧怕而将约柜运到迦特人俄别以东的家中；大卫将约柜运回大卫城；祭司撒督带着约柜逃离耶路撒冷，大卫使他回去</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,10 +791,10 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -836,10 +844,10 @@
         <v>36</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>35</v>
@@ -856,7 +864,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>65</v>
@@ -873,10 +881,10 @@
         <v>41</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>61</v>
@@ -896,10 +904,10 @@
         <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>69</v>
@@ -913,10 +921,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>64</v>
@@ -948,10 +956,10 @@
         <v>58</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -980,10 +988,10 @@
         <v>49</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="179.4" x14ac:dyDescent="0.25">
@@ -997,10 +1005,10 @@
         <v>54</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1011,7 +1019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -1021,8 +1029,14 @@
       <c r="C19" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="220.8" x14ac:dyDescent="0.25">
+      <c r="D19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="276" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -1033,22 +1047,22 @@
         <v>48</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
@@ -1059,10 +1073,10 @@
         <v>46</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1092,15 +1106,15 @@
     <row r="26" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="4" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1123,10 +1137,10 @@
         <v>5</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1137,10 +1151,10 @@
         <v>13</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -1148,13 +1162,13 @@
         <v>15</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="193.2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="207" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
@@ -1165,10 +1179,10 @@
         <v>56</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>66</v>

--- a/Samuel-Kings-Chronicles-notes/Samuel.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Samuel.xlsx
@@ -409,27 +409,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>撒上 18:3-4；撒上 18:20-29；撒上 20:1-42；撒上 21:1-9；撒上 21:10-15；撒上 22:3；撒上 22:20-23；撒上 23:14；撒上 23:16-18；撒上 24:1-7；撒上 25:2-43；撒上 26:9-12；撒上 27:1-7；撒下 1:13-16；撒下 1:17-27；撒下 3:22-30；撒下 3:31-39；撒下 4:8-12；撒下 6:16,20-23；撒下 9:1-13；撒下 12:15-23；撒下 13:37-38；撒下 14:1-24,28；撒下 14:28-33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与约拿单结盟；大卫杀死二百非利士人，并以此娶了扫罗王的女儿米甲；约拿单帮助大卫逃避扫罗；大卫逃避扫罗到祭司亚希米勒处，吃了陈设饼、拿了刀；大卫逃避扫罗到迦特王处，装疯；大卫逃避扫罗到摩押；收容亚希米勒的儿子亚比亚他；大卫住西弗的旷野；与约拿单立约；大卫饶扫罗的命；拿八羞辱大卫、被耶和华击杀，大卫娶了拿八的妻亚比该；大卫再次饶扫罗的命；大卫逃避扫罗到非利士地的洗革拉；大卫杀死亲手杀死扫罗的少年人；大卫为扫罗和约拿单作哀歌；约押为报亚撒黑的仇而杀死押尼珥，大卫为此咒诅约押家；大卫安葬押尼珥并举哀；大卫杀死背叛、杀死伊施波设的巴拿和利甲；米甲轻视、嘲笑大卫为约柜而跳舞；大卫因约拿单的缘故恩待其儿子米非波设，让他同席吃饭、使洗巴服侍他；拔示巴所生的孩子被耶和华击打、得重病死亡；押沙龙逃往基述三年；约押设法使押沙龙回来，但大卫不与他见面两年；押沙龙逼约押使他见大卫，大卫饶恕押沙龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大卫与乌利亚的妻拔示巴犯奸淫；大卫想隐藏奸淫之事、但没有成功；大卫派约押害死乌利亚；大卫娶拔示巴为妻；暗嫩玷污了押沙龙的妹子他玛，然后恨恶并赶走他玛；押沙龙杀死暗嫩后逃跑；押沙龙笼络民心并造反；大卫逃离耶路撒冷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒下 11:2-5；撒下 11:6-13；撒下 11:14-17；撒下 11:27；撒下 13:1-19；撒下 13:28-29,34；撒下 15:1-12；撒下 15:13-23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>撒下 6:1-5；撒下 6:6-11；撒下 6:12-17；撒下 15:24-29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大卫计划将约柜从巴拉犹大运来大卫城；乌撒因用手扶约柜被耶和华击杀，大卫惧怕而将约柜运到迦特人俄别以东的家中；大卫将约柜运回大卫城；祭司撒督带着约柜逃离耶路撒冷，大卫使他回去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大卫与乌利亚的妻拔示巴犯奸淫；大卫想隐藏奸淫之事、但没有成功；大卫派约押害死乌利亚；大卫娶拔示巴为妻；暗嫩玷污了押沙龙的妹子他玛，然后恨恶并赶走他玛；押沙龙杀死暗嫩后逃跑；押沙龙笼络民心并造反，大卫的谋士亚希多弗也跟随押沙龙；大卫逃离耶路撒冷；亚希多弗出计谋，让押沙龙与大卫的妃嫔当众奸淫；约押违背大卫的命令杀死押沙龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒下 11:2-5；撒下 11:6-13；撒下 11:14-17；撒下 11:27；撒下 13:1-19；撒下 13:28-29,34；撒下 15:1-12；撒下 15:13-23；撒下 16:15-23；撒下 18:5,14-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与约拿单结盟；大卫杀死二百非利士人，并以此娶了扫罗王的女儿米甲；约拿单帮助大卫逃避扫罗；大卫逃避扫罗到祭司亚希米勒处，吃了陈设饼、拿了刀；大卫逃避扫罗到迦特王处，装疯；大卫逃避扫罗到摩押；收容亚希米勒的儿子亚比亚他；大卫住西弗的旷野；与约拿单立约；大卫饶扫罗的命；拿八羞辱大卫、被耶和华击杀，大卫娶了拿八的妻亚比该；大卫再次饶扫罗的命；大卫逃避扫罗到非利士地的洗革拉；大卫杀死亲手杀死扫罗的少年人；大卫为扫罗和约拿单作哀歌；约押为报亚撒黑的仇而杀死押尼珥，大卫为此咒诅约押家；大卫安葬押尼珥并举哀；大卫杀死背叛、杀死伊施波设的巴拿和利甲；米甲轻视、嘲笑大卫为约柜而跳舞；大卫因约拿单的缘故恩待其儿子米非波设，让他同席吃饭、使洗巴服侍他；拔示巴所生的孩子被耶和华击打、得重病死亡；押沙龙逃往基述三年；约押设法使押沙龙回来，但大卫不与他见面两年；押沙龙逼约押使他见大卫，大卫饶恕押沙龙；洗巴迎接大卫并控告米非波设背叛大卫，大卫把米非波设的都赐给洗巴；示每咒骂大卫；户筛破坏亚希多弗追击大卫的计谋；户筛派人警告大卫、帮助其逃脱；大卫因押沙龙被杀而伤恸；约押劝谏大卫停止哀恸、安慰百姓；大卫准备回耶路撒冷、许诺立亚玛撒（押沙龙的元帅）代替约押作元帅；大卫宽恕示每；大卫善待米非波设，使他与洗巴均分土地；大卫善待巴西莱；以色列人指责犹大人暗自送大卫回耶路撒冷；示巴反叛；约押使诈杀死亚玛撒；约押围困示巴所在的亚比拉城、策反城里的人杀死示巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 18:3-4；撒上 18:20-29；撒上 20:1-42；撒上 21:1-9；撒上 21:10-15；撒上 22:3；撒上 22:20-23；撒上 23:14；撒上 23:16-18；撒上 24:1-7；撒上 25:2-43；撒上 26:9-12；撒上 27:1-7；撒下 1:13-16；撒下 1:17-27；撒下 3:22-30；撒下 3:31-39；撒下 4:8-12；撒下 6:16,20-23；撒下 9:1-13；撒下 12:15-23；撒下 13:37-38；撒下 14:1-24,28；撒下 14:28-33；撒下 16:1-4；撒下 16:5-14；撒下 17:1-14；撒下 17:15-29；撒下 18:31-33；撒下 19:1-8；撒下 19:9-18；撒下 19:19-23；撒下 19:24-30；撒下 19:31-39；撒下 19:40-43；撒下 20:1-2；撒下 20:8-10；撒下 20:14-22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -791,10 +791,10 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="276" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -1047,10 +1047,10 @@
         <v>48</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>71</v>
@@ -1111,10 +1111,10 @@
         <v>11</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">

--- a/Samuel-Kings-Chronicles-notes/Samuel.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Samuel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>国家</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,14 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>亚希暖（亚希玛斯的女儿）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 14:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>扫罗让百姓起誓禁食，约拿单不知道而违背、被扫罗定死罪，又被百姓救下；召大卫来弹琴以驱赶魔鬼，大卫也做了扫罗拿兵器的人；扫罗嫉妒并想要杀死大卫；扫罗逼迫大卫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,18 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杀死祭司亚希米勒和他父的全家、灭尽祭司城挪伯中的人；曾不容有交鬼的和行巫术的人；扫罗寻求交鬼的妇人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 22:11-19；撒上 28:3；撒上 28:7-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耶和华指示撒母耳膏立扫罗为君王，并且应许拯救百姓脱离非利士人的手；撒母耳膏立扫罗为君王；撒母耳对扫罗预言的兆头都应验了；撒母耳通过抽签向百姓宣告扫罗为王；撒母耳劝诫百姓敬畏侍奉耶和华；撒母耳预言打雷降雨并应验；扫罗不等撒母耳提前献燔祭、撒母耳责备他并预言王位不长久；撒母耳传耶和华的指示说要灭尽亚玛力人、扫罗不听从；撒母耳责备扫罗、并传耶和华的命令废去扫罗的王位；扫罗认罪但不被接纳；撒母耳杀死扫罗放过的亚玛力王；扫罗通过交鬼的妇人招撒母耳的灵魂，撒母耳预言以色列败给非利士、扫罗的灭门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>撒上 9:15-17；撒上 10:1；撒上 10:2-13；撒上 10:17-24；撒上 12:14-15,20-25；撒上 12:16-18；撒上 13:8-14；撒上 15:1-9；撒上 15:10-23；撒上 15:24-29；撒上 15:32-33；撒上 28:8-19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -353,14 +333,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>为运回约柜而献祭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒下 6:13,17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>为运回约柜献祭后，大卫给百姓祝福并分食物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -369,14 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>为拯救基伊拉祷告；为扫罗将围困基伊拉祷告；求问耶和华能否追赶亚玛力人；两次求问耶和华可否攻打非利士人；大卫因耶和华的应许而感恩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 23:2,4；撒上 23:10-12；撒上 30:7-8；撒下 5:19,23-24；撒下 7:18-29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>摩押王收容大卫的父母；非利士的迦特王亚吉收容大卫；推罗王赠送香柏木、帮助大卫建造宫殿；摩押人归服并进贡；亚兰人归服并进贡；哈马王陀以问安祝福并献礼物；以东人归服；亚扪王拿辖曾恩待大卫，拿辖死后，大卫派人安慰其儿子哈嫩，但哈嫩羞辱使者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,22 +357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>耶和华启示撒母耳要膏立耶西的儿子；耶和华指示撒母耳膏立大卫；大卫逃避扫罗到撒母耳处；先知迦得让大卫离开山寨去犹大地；撒母耳去世；先知拿单传耶和华的应许，大卫不能建造圣殿、大卫的后裔将建造圣殿并坚定国位；先知拿单责备大卫犯奸淫、害死乌利亚，并传耶和华将降灾祸；先知拿单给所罗门赐名叫耶底底亚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 16:1；撒上 16:11-13；撒上 19:18-24；撒上 22:5；撒上 25:1；撒下 7:2-17；撒下 12:1-15；撒下 12:24-25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大卫击杀非利士的歌利亚，使得以色列战胜非利士；大卫杀败非利士人、拯救了基伊拉；扫罗要围困基伊拉、大卫逃离；西弗人出卖大卫，扫罗追杀大卫；大卫住非利士地时侵夺基述、基色、亚玛力；迦特王亚吉希望大卫与非利士一起攻打以色列；非利士人防备大卫、不许他一同出战；亚玛力人攻破洗革拉并掳走百姓；大卫追赶亚玛力人并得胜、夺回被掳去的；攻打耶路撒冷的耶布斯人，攻取锡安的保障（大卫城）；非利士人两次来攻打以色列，以色列击败非利士；治服非利士人；攻打摩押人；击败琐巴王；击败帮助琐巴的亚兰人；击败亚兰（以东）人；击败亚扪、亚兰、玛迦和陀伯的联军；打败亚扪人、围攻拉巴；攻取拉巴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 17:41-54；撒上 23:1-5；撒上 23:6-13；撒上 23:19-29；撒上 27:8-9；撒上 28:1-2；撒上 29:3-5；撒上 30:1-3；撒上 30:9-20；撒下 5:6-10；撒下 5:17-25；撒下 8:1；撒下 8:2；撒下 8:3-4,7-8；撒下 8:5-6；撒下 8:13-14；撒下 10:6-19；撒下 11:1；撒下 12:26-31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>撒下 6:1-5；撒下 6:6-11；撒下 6:12-17；撒下 15:24-29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,19 +365,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大卫与乌利亚的妻拔示巴犯奸淫；大卫想隐藏奸淫之事、但没有成功；大卫派约押害死乌利亚；大卫娶拔示巴为妻；暗嫩玷污了押沙龙的妹子他玛，然后恨恶并赶走他玛；押沙龙杀死暗嫩后逃跑；押沙龙笼络民心并造反，大卫的谋士亚希多弗也跟随押沙龙；大卫逃离耶路撒冷；亚希多弗出计谋，让押沙龙与大卫的妃嫔当众奸淫；约押违背大卫的命令杀死押沙龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒下 11:2-5；撒下 11:6-13；撒下 11:14-17；撒下 11:27；撒下 13:1-19；撒下 13:28-29,34；撒下 15:1-12；撒下 15:13-23；撒下 16:15-23；撒下 18:5,14-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与约拿单结盟；大卫杀死二百非利士人，并以此娶了扫罗王的女儿米甲；约拿单帮助大卫逃避扫罗；大卫逃避扫罗到祭司亚希米勒处，吃了陈设饼、拿了刀；大卫逃避扫罗到迦特王处，装疯；大卫逃避扫罗到摩押；收容亚希米勒的儿子亚比亚他；大卫住西弗的旷野；与约拿单立约；大卫饶扫罗的命；拿八羞辱大卫、被耶和华击杀，大卫娶了拿八的妻亚比该；大卫再次饶扫罗的命；大卫逃避扫罗到非利士地的洗革拉；大卫杀死亲手杀死扫罗的少年人；大卫为扫罗和约拿单作哀歌；约押为报亚撒黑的仇而杀死押尼珥，大卫为此咒诅约押家；大卫安葬押尼珥并举哀；大卫杀死背叛、杀死伊施波设的巴拿和利甲；米甲轻视、嘲笑大卫为约柜而跳舞；大卫因约拿单的缘故恩待其儿子米非波设，让他同席吃饭、使洗巴服侍他；拔示巴所生的孩子被耶和华击打、得重病死亡；押沙龙逃往基述三年；约押设法使押沙龙回来，但大卫不与他见面两年；押沙龙逼约押使他见大卫，大卫饶恕押沙龙；洗巴迎接大卫并控告米非波设背叛大卫，大卫把米非波设的都赐给洗巴；示每咒骂大卫；户筛破坏亚希多弗追击大卫的计谋；户筛派人警告大卫、帮助其逃脱；大卫因押沙龙被杀而伤恸；约押劝谏大卫停止哀恸、安慰百姓；大卫准备回耶路撒冷、许诺立亚玛撒（押沙龙的元帅）代替约押作元帅；大卫宽恕示每；大卫善待米非波设，使他与洗巴均分土地；大卫善待巴西莱；以色列人指责犹大人暗自送大卫回耶路撒冷；示巴反叛；约押使诈杀死亚玛撒；约押围困示巴所在的亚比拉城、策反城里的人杀死示巴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒上 18:3-4；撒上 18:20-29；撒上 20:1-42；撒上 21:1-9；撒上 21:10-15；撒上 22:3；撒上 22:20-23；撒上 23:14；撒上 23:16-18；撒上 24:1-7；撒上 25:2-43；撒上 26:9-12；撒上 27:1-7；撒下 1:13-16；撒下 1:17-27；撒下 3:22-30；撒下 3:31-39；撒下 4:8-12；撒下 6:16,20-23；撒下 9:1-13；撒下 12:15-23；撒下 13:37-38；撒下 14:1-24,28；撒下 14:28-33；撒下 16:1-4；撒下 16:5-14；撒下 17:1-14；撒下 17:15-29；撒下 18:31-33；撒下 19:1-8；撒下 19:9-18；撒下 19:19-23；撒下 19:24-30；撒下 19:31-39；撒下 19:40-43；撒下 20:1-2；撒下 20:8-10；撒下 20:14-22</t>
+    <t>耶和华指示撒母耳膏立扫罗为君王，并且应许拯救百姓脱离非利士人的手；撒母耳膏立扫罗为君王；撒母耳对扫罗预言的兆头都应验了；撒母耳通过抽签向百姓宣告扫罗为王；撒母耳劝诫百姓敬畏侍奉耶和华；撒母耳预言打雷降雨并应验；扫罗不等撒母耳提前献燔祭、撒母耳责备他并预言王位不长久；撒母耳传耶和华的指示说要灭尽亚玛力人、扫罗不听从；撒母耳责备扫罗、并传耶和华的命令废去扫罗的王位；扫罗认罪但不被接纳；撒母耳杀死扫罗放过的亚玛力王；扫罗通过交鬼的妇人招撒母耳的灵魂，撒母耳预言以色列败给非利士、扫罗被灭门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死祭司亚希米勒和他父的全家、灭尽祭司城挪伯中的人；曾不容有交鬼的和行巫术的人；扫罗寻求交鬼的妇人；扫罗想杀灭以色列起誓不杀灭的基遍人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 22:11-19；撒上 28:3；撒上 28:7-8；撒下 21:1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚希暖（亚希玛斯的女儿）；利斯巴（爱雅的女儿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 14:50；撒下 21:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与约拿单结盟；大卫杀死二百非利士人，并以此娶了扫罗王的女儿米甲；约拿单帮助大卫逃避扫罗；大卫逃避扫罗到祭司亚希米勒处，吃了陈设饼、拿了刀；大卫逃避扫罗到迦特王处，装疯；大卫逃避扫罗到摩押；收容亚希米勒的儿子亚比亚他；大卫住西弗的旷野；与约拿单立约；大卫饶扫罗的命；拿八羞辱大卫、被耶和华击杀，大卫娶了拿八的妻亚比该；大卫再次饶扫罗的命；大卫逃避扫罗到非利士地的洗革拉；大卫杀死亲手杀死扫罗的少年人；大卫为扫罗和约拿单作哀歌；约押为报亚撒黑的仇而杀死押尼珥，大卫为此咒诅约押家；大卫安葬押尼珥并举哀；大卫杀死背叛、杀死伊施波设的巴拿和利甲；米甲轻视、嘲笑大卫为约柜而跳舞；大卫因约拿单的缘故恩待其儿子米非波设，让他同席吃饭、使洗巴服侍他；拔示巴所生的孩子被耶和华击打、得重病死亡；押沙龙逃往基述三年；约押设法使押沙龙回来，但大卫不与他见面两年；押沙龙逼约押使他见大卫，大卫饶恕押沙龙；洗巴迎接大卫并控告米非波设背叛大卫，大卫把米非波设的都赐给洗巴；示每咒骂大卫；户筛破坏亚希多弗追击大卫的计谋；户筛派人警告大卫、帮助其逃脱；大卫因押沙龙被杀而伤恸；约押劝谏大卫停止哀恸、安慰百姓；大卫准备回耶路撒冷、许诺立亚玛撒（押沙龙的元帅）代替约押作元帅；大卫宽恕示每；大卫善待米非波设，使他与洗巴均分土地；大卫善待巴西莱；以色列人指责犹大人暗自送大卫回耶路撒冷；示巴反叛；约押使诈杀死亚玛撒；约押围困示巴所在的亚比拉城、策反城里的人杀死示巴；耶和华因扫罗想杀灭基遍人而降饥荒，大卫将扫罗的后代（除了米非波设）交给基遍人杀死；大卫收回扫罗和他子孙的尸身并重新安葬；亚比筛救了大卫的性命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 18:3-4；撒上 18:20-29；撒上 20:1-42；撒上 21:1-9；撒上 21:10-15；撒上 22:3；撒上 22:20-23；撒上 23:14；撒上 23:16-18；撒上 24:1-7；撒上 25:2-43；撒上 26:9-12；撒上 27:1-7；撒下 1:13-16；撒下 1:17-27；撒下 3:22-30；撒下 3:31-39；撒下 4:8-12；撒下 6:16,20-23；撒下 9:1-13；撒下 12:15-23；撒下 13:37-38；撒下 14:1-24,28；撒下 14:28-33；撒下 16:1-4；撒下 16:5-14；撒下 17:1-14；撒下 17:15-29；撒下 18:31-33；撒下 19:1-8；撒下 19:9-18；撒下 19:19-23；撒下 19:24-30；撒下 19:31-39；撒下 19:40-43；撒下 20:1-2；撒下 20:8-10；撒下 20:14-22；撒下 21:1-9；撒下 21:11-14；撒下 21:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大卫击杀非利士的歌利亚，使得以色列战胜非利士；大卫杀败非利士人、拯救了基伊拉；扫罗要围困基伊拉、大卫逃离；西弗人出卖大卫，扫罗追杀大卫；大卫住非利士地时侵夺基述、基色、亚玛力；迦特王亚吉希望大卫与非利士一起攻打以色列；非利士人防备大卫、不许他一同出战；亚玛力人攻破洗革拉并掳走百姓；大卫追赶亚玛力人并得胜、夺回被掳去的；攻打耶路撒冷的耶布斯人，攻取锡安的保障（大卫城）；非利士人两次来攻打以色列，以色列击败非利士；治服非利士人；攻打摩押人；击败琐巴王；击败帮助琐巴的亚兰人；击败亚兰（以东）人；击败亚扪、亚兰、玛迦和陀伯的联军；打败亚扪人、围攻拉巴；攻取拉巴；攻打非利士，杀死多个巨人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 17:41-54；撒上 23:1-5；撒上 23:6-13；撒上 23:19-29；撒上 27:8-9；撒上 28:1-2；撒上 29:3-5；撒上 30:1-3；撒上 30:9-20；撒下 5:6-10；撒下 5:17-25；撒下 8:1；撒下 8:2；撒下 8:3-4,7-8；撒下 8:5-6；撒下 8:13-14；撒下 10:6-19；撒下 11:1；撒下 12:26-31；撒下 21:15-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为拯救基伊拉祷告；为扫罗将围困基伊拉祷告；求问耶和华能否追赶亚玛力人；两次求问耶和华可否攻打非利士人；大卫因耶和华的应许而感恩；大卫因饥荒求问耶和华；大卫作诗感谢、称颂耶和华；大卫在遗言中称颂耶和华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 23:2,4；撒上 23:10-12；撒上 30:7-8；撒下 5:19,23-24；撒下 7:18-29；撒下 21:1；撒下 22:1-51；撒下 23:1-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大卫与乌利亚的妻拔示巴犯奸淫；大卫想隐藏奸淫之事、但没有成功；大卫派约押害死乌利亚；大卫娶拔示巴为妻；暗嫩玷污了押沙龙的妹子他玛，然后恨恶并赶走他玛；押沙龙杀死暗嫩后逃跑；押沙龙笼络民心并造反，大卫的谋士亚希多弗也跟随押沙龙；大卫逃离耶路撒冷；亚希多弗出计谋，让押沙龙与大卫的妃嫔当众奸淫；约押违背大卫的命令杀死押沙龙；大卫数点百姓；大卫悔改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒下 11:2-5；撒下 11:6-13；撒下 11:14-17；撒下 11:27；撒下 13:1-19；撒下 13:28-29,34；撒下 15:1-12；撒下 15:13-23；撒下 16:15-23；撒下 18:5,14-15；撒下 24:1-9；撒下 24:10,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶和华启示撒母耳要膏立耶西的儿子；耶和华指示撒母耳膏立大卫；大卫逃避扫罗到撒母耳处；先知迦得让大卫离开山寨去犹大地；撒母耳去世；先知拿单传耶和华的应许，大卫不能建造圣殿、大卫的后裔将建造圣殿并坚定国位；先知拿单责备大卫犯奸淫、害死乌利亚，并传耶和华将降灾祸；先知拿单给所罗门赐名叫耶底底亚；先知迦得传耶和华为大卫数点百姓而降灾；先知迦得传耶和华的命令，让大卫筑坛献祭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒上 16:1；撒上 16:11-13；撒上 19:18-24；撒上 22:5；撒上 25:1；撒下 7:2-17；撒下 12:1-15；撒下 12:24-25；撒下 24:11-14；撒下 24:18-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶和华因大卫数点百姓而降瘟疫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒下 24:15-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒下 6:13,17；撒下 24:20-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为运回约柜而献祭；大卫因瘟疫而筑坛献祭，止息了瘟疫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -790,11 +798,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -802,9 +810,8 @@
     <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="2" max="2" width="40.77734375" customWidth="1"/>
     <col min="3" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="40.77734375" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" customWidth="1"/>
-    <col min="6" max="6" width="30.77734375" customWidth="1"/>
+    <col min="4" max="4" width="60.77734375" customWidth="1"/>
+    <col min="5" max="6" width="30.77734375" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -819,7 +826,7 @@
         <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -833,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -844,10 +851,10 @@
         <v>36</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>35</v>
@@ -864,10 +871,10 @@
         <v>43</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -881,16 +888,16 @@
         <v>41</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
@@ -904,16 +911,16 @@
         <v>39</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -921,13 +928,13 @@
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -950,16 +957,16 @@
         <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -976,22 +983,28 @@
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="D14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="179.4" x14ac:dyDescent="0.25">
@@ -999,16 +1012,16 @@
         <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1019,44 +1032,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="409.6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="317.39999999999998" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1067,16 +1080,16 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1095,7 +1108,7 @@
         <v>44</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1111,10 +1124,10 @@
         <v>11</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1137,10 +1150,10 @@
         <v>5</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1151,10 +1164,10 @@
         <v>13</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="4" customFormat="1" ht="82.8" x14ac:dyDescent="0.25">
@@ -1162,33 +1175,33 @@
         <v>15</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="4" customFormat="1" ht="207" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" ht="138" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
